--- a/medicine/Enfance/Robert_Gring/Robert_Gring.xlsx
+++ b/medicine/Enfance/Robert_Gring/Robert_Gring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Gring, né en 1922 et mort en 1995, est un dessinateur humoristique et illustrateur français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Gring commence sa carrière comme dessinateur de presse pour le quotidien France-Soir. Il passe la Seconde Guerre mondiale dans un camp de travail.
 Après la guerre, il publie ses dessins humoristiques dans l'Almanach Vermot et des magazines hebdomadaires comme Paris Match, Télé 7 Jours et La Vie parisienne. Il collabore aussi à certains magazines pour enfants : le bimensuel Francs Jeux, le trimestriel Ludo et l'hebdomadaire Pif Gadget(rubrique des jeux illustrés). Mais c'est surtout en tant qu'illustrateur des manuels de la méthode d'apprentissage des langues Assimil, qu'il rencontre le succès.
